--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G2">
+        <v>0.01028766666666667</v>
+      </c>
+      <c r="H2">
+        <v>0.030863</v>
+      </c>
+      <c r="I2">
+        <v>0.004475330795722314</v>
+      </c>
+      <c r="J2">
+        <v>0.004475330795722313</v>
+      </c>
+      <c r="K2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0.14444</v>
-      </c>
-      <c r="H2">
-        <v>0.43332</v>
-      </c>
-      <c r="I2">
-        <v>0.06801140868936309</v>
-      </c>
-      <c r="J2">
-        <v>0.06801140868936309</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.07718933333333333</v>
+        <v>0.654434</v>
       </c>
       <c r="N2">
-        <v>0.231568</v>
+        <v>1.963302</v>
       </c>
       <c r="O2">
-        <v>0.06450640626545157</v>
+        <v>0.7645131972140643</v>
       </c>
       <c r="P2">
-        <v>0.06450640626545157</v>
+        <v>0.7645131972140642</v>
       </c>
       <c r="Q2">
-        <v>0.01114922730666667</v>
+        <v>0.006732598847333333</v>
       </c>
       <c r="R2">
-        <v>0.10034304576</v>
+        <v>0.060593389626</v>
       </c>
       <c r="S2">
-        <v>0.004387171559601718</v>
+        <v>0.003421449455228229</v>
       </c>
       <c r="T2">
-        <v>0.004387171559601718</v>
+        <v>0.003421449455228228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,25 +587,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.14444</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H3">
-        <v>0.43332</v>
+        <v>0.030863</v>
       </c>
       <c r="I3">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722314</v>
       </c>
       <c r="J3">
-        <v>0.06801140868936309</v>
+        <v>0.004475330795722313</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6544340000000001</v>
+        <v>0.20158</v>
       </c>
       <c r="N3">
-        <v>1.963302</v>
+        <v>0.6047400000000001</v>
       </c>
       <c r="O3">
-        <v>0.5469043928080461</v>
+        <v>0.2354868027859358</v>
       </c>
       <c r="P3">
-        <v>0.546904392808046</v>
+        <v>0.2354868027859358</v>
       </c>
       <c r="Q3">
-        <v>0.09452644696000002</v>
+        <v>0.002073787846666667</v>
       </c>
       <c r="R3">
-        <v>0.8507380226400001</v>
+        <v>0.01866409062</v>
       </c>
       <c r="S3">
-        <v>0.037195738173276</v>
+        <v>0.001053881340494086</v>
       </c>
       <c r="T3">
-        <v>0.03719573817327599</v>
+        <v>0.001053881340494085</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
@@ -649,7 +649,7 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.14444</v>
+        <v>2.288462333333333</v>
       </c>
       <c r="H4">
-        <v>0.43332</v>
+        <v>6.865386999999999</v>
       </c>
       <c r="I4">
-        <v>0.06801140868936309</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="J4">
-        <v>0.06801140868936309</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4649916666666667</v>
+        <v>0.654434</v>
       </c>
       <c r="N4">
-        <v>1.394975</v>
+        <v>1.963302</v>
       </c>
       <c r="O4">
-        <v>0.3885892009265024</v>
+        <v>0.7645131972140643</v>
       </c>
       <c r="P4">
-        <v>0.3885892009265024</v>
+        <v>0.7645131972140642</v>
       </c>
       <c r="Q4">
-        <v>0.06716339633333335</v>
+        <v>1.497647558652666</v>
       </c>
       <c r="R4">
-        <v>0.6044705670000001</v>
+        <v>13.478828027874</v>
       </c>
       <c r="S4">
-        <v>0.02642849895648539</v>
+        <v>0.761091747758836</v>
       </c>
       <c r="T4">
-        <v>0.02642849895648539</v>
+        <v>0.7610917477588359</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,170 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.979321333333333</v>
+        <v>2.288462333333333</v>
       </c>
       <c r="H5">
-        <v>5.937964</v>
+        <v>6.865386999999999</v>
       </c>
       <c r="I5">
-        <v>0.9319885913106368</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="J5">
-        <v>0.9319885913106369</v>
+        <v>0.9955246692042776</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.07718933333333333</v>
+        <v>0.20158</v>
       </c>
       <c r="N5">
-        <v>0.231568</v>
+        <v>0.6047400000000001</v>
       </c>
       <c r="O5">
-        <v>0.06450640626545157</v>
+        <v>0.2354868027859358</v>
       </c>
       <c r="P5">
-        <v>0.06450640626545157</v>
+        <v>0.2354868027859358</v>
       </c>
       <c r="Q5">
-        <v>0.1527824941724444</v>
+        <v>0.4613082371533333</v>
       </c>
       <c r="R5">
-        <v>1.375042447552</v>
+        <v>4.15177413438</v>
       </c>
       <c r="S5">
-        <v>0.06011923470584984</v>
+        <v>0.2344329214454417</v>
       </c>
       <c r="T5">
-        <v>0.06011923470584985</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1.979321333333333</v>
-      </c>
-      <c r="H6">
-        <v>5.937964</v>
-      </c>
-      <c r="I6">
-        <v>0.9319885913106368</v>
-      </c>
-      <c r="J6">
-        <v>0.9319885913106369</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.6544340000000001</v>
-      </c>
-      <c r="N6">
-        <v>1.963302</v>
-      </c>
-      <c r="O6">
-        <v>0.5469043928080461</v>
-      </c>
-      <c r="P6">
-        <v>0.546904392808046</v>
-      </c>
-      <c r="Q6">
-        <v>1.295335177458667</v>
-      </c>
-      <c r="R6">
-        <v>11.658016597128</v>
-      </c>
-      <c r="S6">
-        <v>0.5097086546347701</v>
-      </c>
-      <c r="T6">
-        <v>0.5097086546347701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.979321333333333</v>
-      </c>
-      <c r="H7">
-        <v>5.937964</v>
-      </c>
-      <c r="I7">
-        <v>0.9319885913106368</v>
-      </c>
-      <c r="J7">
-        <v>0.9319885913106369</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.4649916666666667</v>
-      </c>
-      <c r="N7">
-        <v>1.394975</v>
-      </c>
-      <c r="O7">
-        <v>0.3885892009265024</v>
-      </c>
-      <c r="P7">
-        <v>0.3885892009265024</v>
-      </c>
-      <c r="Q7">
-        <v>0.9203679256555556</v>
-      </c>
-      <c r="R7">
-        <v>8.2833113309</v>
-      </c>
-      <c r="S7">
-        <v>0.362160701970017</v>
-      </c>
-      <c r="T7">
-        <v>0.362160701970017</v>
+        <v>0.2344329214454416</v>
       </c>
     </row>
   </sheetData>
